--- a/DIC/Lab2/Task5/N=5/task5_N5.xlsx
+++ b/DIC/Lab2/Task5/N=5/task5_N5.xlsx
@@ -527,52 +527,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.964e-12</v>
+        <v>7.88e-12</v>
       </c>
       <c r="B2" t="n">
-        <v>6.968e-12</v>
+        <v>6.935e-12</v>
       </c>
       <c r="C2" t="n">
-        <v>6.966e-12</v>
+        <v>7.408000000000001e-12</v>
       </c>
       <c r="D2" t="n">
-        <v>5.641e-12</v>
+        <v>5.669e-12</v>
       </c>
       <c r="E2" t="n">
-        <v>5.956e-12</v>
+        <v>5.337e-12</v>
       </c>
       <c r="F2" t="n">
-        <v>5.799e-12</v>
+        <v>5.503e-12</v>
       </c>
       <c r="G2" t="n">
-        <v>5.243e-12</v>
+        <v>5.434e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>4.986e-12</v>
+        <v>5.158e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>5.114e-12</v>
+        <v>5.296e-12</v>
       </c>
       <c r="J2" t="n">
-        <v>5.618e-12</v>
+        <v>5.556e-12</v>
       </c>
       <c r="K2" t="n">
-        <v>5.308e-12</v>
+        <v>5.267e-12</v>
       </c>
       <c r="L2" t="n">
-        <v>5.463e-12</v>
+        <v>5.411e-12</v>
       </c>
       <c r="M2" t="n">
-        <v>5.959e-12</v>
+        <v>5.738e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>5.599e-12</v>
+        <v>5.362e-12</v>
       </c>
       <c r="O2" t="n">
-        <v>5.779e-12</v>
+        <v>5.55e-12</v>
       </c>
       <c r="P2" t="n">
-        <v>2.912e-11</v>
+        <v>2.917e-11</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
